--- a/pred_ohlcv/54_21/2019-10-17 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 BTG ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>2190.9629</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2299.181600000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2299.181600000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2333.181600000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2370.681600000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2391.037800000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2405.037800000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2419.537800000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2683.537800000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3909.779800000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4149.615400000002</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6507.781500000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6507.781500000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6624.178800000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>6615.722000000001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>6620.756</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>6242.4431</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>6242.4431</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>6238.4646</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4634.208200790001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4634.208200790001</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4741.290200790001</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>4741.290200790001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>4156.197193700002</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4218.537193700002</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>4425.403793700001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4394.569193700001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4628.215893700001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4666.395893700002</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4694.395893700002</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4734.395893700002</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4774.141193700002</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4763.954993700002</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4685.986793700002</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4675.326793700002</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4744.266593700002</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>4990.020941630001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>4969.597541630002</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>5001.597541630002</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 BTG ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>2299.181600000001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2299.181600000001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2370.681600000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2391.037800000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2405.037800000001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2419.537800000001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2683.537800000001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3909.779800000001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4149.615400000002</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6507.781500000001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6507.781500000001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6624.178800000001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>6615.722000000001</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>6620.756</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6249.502500000001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6249.502500000001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>6249.502500000001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>6353.252500000001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>6304.5563</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>6227.7715</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>6241.4964</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>6237.7304</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>6242.4431</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>6242.4431</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>6242.4431</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>6238.4646</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4634.208200790001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4634.208200790001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4741.290200790001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>4741.290200790001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>4156.197193700002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4218.537193700002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>4425.403793700001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4628.215893700001</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4666.395893700002</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4694.395893700002</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4734.395893700002</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4774.141193700002</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4763.954993700002</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4685.986793700002</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4675.326793700002</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4744.266593700002</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>4990.020941630001</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>4969.597541630002</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>5001.597541630002</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
